--- a/2019_sell/20191218.xlsx
+++ b/2019_sell/20191218.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49AF397-F812-4A51-B51B-8F718600CEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F91017-F601-4151-AA75-5E6A5C6AFBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,39 +117,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大地之怒（上次）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新摸尸体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾斯达尔项圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愤怒头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒风头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马果果</t>
+    <t>其他补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC散件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dkp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固之力勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速射强弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环石锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨满护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真龙护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酥星果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡德财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗头膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叨逼叨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,59 +265,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accelerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人追猎腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启示项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃魔腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人护腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥术师护腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酥心果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥顿ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七夜</t>
+    <t>黄小喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史密斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,27 +285,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大地手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术能量戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜幕头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环石锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞄准镜图纸</t>
+    <t>捡尸体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒风腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒腿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,151 +317,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夜幕护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥术师肩膀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大地肩膀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附魔治疗能力图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥术师手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命赐予头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄小喵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排骨男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溺水的鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叨逼叨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸽哨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量肩膀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粪叉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预言衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰行者靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防火披风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼睛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂野肩铠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糯米饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜幕腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大地护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史密斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵风裤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨弗拉斯指环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玛丽斯达尔防御者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传奇补项链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他补助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MC散件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dkp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人名</t>
+    <t>火蜥蜴裤子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A401816-C903-4DC8-A8BA-32AED1B1A46C}">
   <dimension ref="A3:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A3:M56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -943,74 +871,66 @@
         <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="6">
-        <v>300</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>450</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="P4" t="s">
         <v>18</v>
       </c>
       <c r="Q4">
         <f>INT(M7)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>350</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="6">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="L5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="7">
         <f>SUM(C4:C11)</f>
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1020,7 +940,7 @@
       </c>
       <c r="Q5">
         <f>O5*Q$4</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R5" t="s">
         <v>20</v>
@@ -1028,29 +948,25 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
-        <v>200</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6">
-        <v>700</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="L6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1060,7 +976,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ref="Q6:Q13" si="0">O6*Q$4</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R6" t="s">
         <v>20</v>
@@ -1068,30 +984,26 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2">
-        <v>450</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4">
         <v>700</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="L7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="7">
         <f>M5/M6</f>
-        <v>35.526315789473685</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -1101,7 +1013,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="R7" t="s">
         <v>20</v>
@@ -1109,23 +1021,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>250</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4">
-        <v>100</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="O8">
         <v>4</v>
@@ -1135,7 +1043,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="s">
         <v>20</v>
@@ -1159,7 +1067,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R9" t="s">
         <v>20</v>
@@ -1183,7 +1091,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
         <v>20</v>
@@ -1207,7 +1115,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
         <v>20</v>
@@ -1226,7 +1134,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="R12" t="s">
         <v>20</v>
@@ -1245,7 +1153,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
         <v>20</v>
@@ -1255,9 +1163,15 @@
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1268,19 +1182,19 @@
       </c>
       <c r="M14" s="7">
         <f>SUM(C14:C99) + SUM(H:H)</f>
-        <v>10000</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
@@ -1291,14 +1205,20 @@
         <v>8</v>
       </c>
       <c r="M15" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <v>550</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1308,13 +1228,13 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
@@ -1325,13 +1245,13 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
@@ -1341,9 +1261,15 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4">
+        <v>200</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1353,17 +1279,15 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4">
-        <v>-7</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1372,13 +1296,13 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
@@ -1389,13 +1313,13 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4"/>
       <c r="G22" s="4"/>
@@ -1405,9 +1329,15 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4">
+        <v>500</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1418,19 +1348,19 @@
       </c>
       <c r="M23" s="7">
         <f>M14</f>
-        <v>10000</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4"/>
       <c r="G24" s="4"/>
@@ -1442,14 +1372,20 @@
       </c>
       <c r="Q24">
         <f>INT(M38)</f>
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4">
+        <v>500</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1463,7 +1399,7 @@
       </c>
       <c r="Q25">
         <f>Q$24*O25</f>
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="R25" t="s">
         <v>20</v>
@@ -1472,13 +1408,13 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4"/>
       <c r="G26" s="4"/>
@@ -1493,7 +1429,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ref="Q26:Q33" si="1">Q$24*O26</f>
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="R26" t="s">
         <v>20</v>
@@ -1502,17 +1438,15 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="4">
-        <v>-1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1525,7 +1459,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="R27" t="s">
         <v>20</v>
@@ -1533,20 +1467,24 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4">
+        <v>200</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="L28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="1">
-        <v>50</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M28" s="1"/>
       <c r="O28">
         <v>4</v>
       </c>
@@ -1555,7 +1493,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>944</v>
+        <v>1020</v>
       </c>
       <c r="R28" t="s">
         <v>20</v>
@@ -1564,13 +1502,13 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
@@ -1591,7 +1529,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>1180</v>
+        <v>1275</v>
       </c>
       <c r="R29" t="s">
         <v>20</v>
@@ -1600,15 +1538,17 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-7</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1618,7 +1558,7 @@
       </c>
       <c r="M30" s="7">
         <f>M23*0.02</f>
-        <v>200</v>
+        <v>209.4</v>
       </c>
       <c r="O30">
         <v>6</v>
@@ -1628,7 +1568,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>1416</v>
+        <v>1530</v>
       </c>
       <c r="R30" t="s">
         <v>20</v>
@@ -1636,15 +1576,9 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="4">
-        <v>600</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1655,7 +1589,7 @@
       </c>
       <c r="M31" s="7">
         <f>IF(M23&gt;=10000, M23*0.03, 0)</f>
-        <v>300</v>
+        <v>314.09999999999997</v>
       </c>
       <c r="O31">
         <v>7</v>
@@ -1665,7 +1599,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>1652</v>
+        <v>1785</v>
       </c>
       <c r="R31" t="s">
         <v>20</v>
@@ -1674,13 +1608,13 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
@@ -1695,7 +1629,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>1888</v>
+        <v>2040</v>
       </c>
       <c r="R32" t="s">
         <v>20</v>
@@ -1719,7 +1653,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>2124</v>
+        <v>2295</v>
       </c>
       <c r="R33" t="s">
         <v>20</v>
@@ -1727,15 +1661,9 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-      <c r="B34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4">
-        <v>100</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1744,15 +1672,9 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4">
-        <v>100</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1761,15 +1683,9 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
-      <c r="B36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="4">
-        <v>200</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1791,21 +1707,23 @@
       </c>
       <c r="M37" s="7">
         <f>M23-SUM(M28:M31)</f>
-        <v>9450</v>
+        <v>9946.5</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-40</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1815,21 +1733,23 @@
       </c>
       <c r="M38" s="7">
         <f>M37/M15</f>
-        <v>236.25</v>
+        <v>255.03846153846155</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="E39" s="4">
+        <v>-21</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1837,9 +1757,15 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4">
+        <v>200</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1849,98 +1775,152 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
+      <c r="P41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41">
+        <f>INT(M49)</f>
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
-      <c r="B42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42">
+        <f>Q$41*O42</f>
+        <v>52</v>
+      </c>
+      <c r="R42" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43:Q50" si="2">Q$41*O43</f>
+        <v>104</v>
+      </c>
+      <c r="R43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
-      <c r="B44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="4">
-        <v>100</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="R44" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
-      <c r="B45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="4">
-        <v>700</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="R45" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
-      <c r="B46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="4">
-        <v>100</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="R46" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
@@ -1952,18 +1932,25 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="R47" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
-      <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="4">
-        <v>100</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -1973,20 +1960,27 @@
         <v>13</v>
       </c>
       <c r="M48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="R48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="4">
-        <v>100</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1997,95 +1991,91 @@
       </c>
       <c r="M49" s="7">
         <f>M30/M48</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.35</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="R49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
-      <c r="B50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="4">
-        <v>100</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="R50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
-      <c r="B51" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="4">
-        <v>450</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
-      <c r="B52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="4">
-        <v>450</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
-      <c r="B53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="4">
-        <v>700</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
-      <c r="B54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="4">
-        <v>100</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2096,14 +2086,10 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
-      <c r="B56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="4">
-        <v>70</v>
-      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="G56" s="4"/>
